--- a/custos.xlsx
+++ b/custos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corpl\OneDrive\DA3_SYSTEMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3A7885-C316-4F87-A0D3-50BD5EB163E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C722156-5FD6-4509-B297-1945625F9A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1873814F-232F-4AD3-BAB0-C5D62216E98B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="160">
   <si>
     <t>ÁGUA AZUL DO NORTE</t>
   </si>
@@ -516,15 +516,6 @@
   </si>
   <si>
     <t>VITÓRIA DO XINGU</t>
-  </si>
-  <si>
-    <t>meso</t>
-  </si>
-  <si>
-    <t>regiao</t>
-  </si>
-  <si>
-    <t>municipio</t>
   </si>
 </sst>
 </file>
@@ -908,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE769A2B-8AE6-4E66-89B5-7D16AE33BE54}">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,456 +912,456 @@
     <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1378,65 +1369,65 @@
         <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1447,7 +1438,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1458,7 +1449,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1469,18 +1460,18 @@
         <v>52</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1491,7 +1482,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1502,7 +1493,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1513,18 +1504,18 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1535,18 +1526,18 @@
         <v>52</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1554,10 +1545,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1565,10 +1556,10 @@
         <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1576,10 +1567,10 @@
         <v>54</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1587,10 +1578,10 @@
         <v>54</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1598,10 +1589,10 @@
         <v>54</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1609,10 +1600,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1620,263 +1611,263 @@
         <v>54</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1884,10 +1875,10 @@
         <v>54</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1895,10 +1886,10 @@
         <v>54</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1906,10 +1897,10 @@
         <v>54</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1917,131 +1908,131 @@
         <v>54</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -2049,54 +2040,54 @@
         <v>1</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -2104,76 +2095,76 @@
         <v>1</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -2181,10 +2172,10 @@
         <v>1</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -2192,21 +2183,21 @@
         <v>1</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -2214,197 +2205,197 @@
         <v>1</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -2412,10 +2403,10 @@
         <v>130</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -2426,7 +2417,7 @@
         <v>150</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -2437,7 +2428,7 @@
         <v>150</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -2448,7 +2439,7 @@
         <v>150</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -2459,29 +2450,29 @@
         <v>150</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -2492,7 +2483,7 @@
         <v>150</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -2503,21 +2494,14 @@
         <v>150</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C145" s="1" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C144">
+    <sortCondition ref="A1:A144"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>